--- a/eclipse-workspace/MiniProject1/target/test-classes/AddContactData.xlsx
+++ b/eclipse-workspace/MiniProject1/target/test-classes/AddContactData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="579"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,16 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Doe</t>
-  </si>
-  <si>
-    <t>john.doe@test.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
   <si>
     <t>Street 1</t>
   </si>
@@ -33,75 +24,30 @@
     <t>Apt 2</t>
   </si>
   <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
     <t>Valid</t>
   </si>
   <si>
     <t>Contact added successfully</t>
   </si>
   <si>
-    <t>jane.doe@test.com</t>
-  </si>
-  <si>
     <t>Street 3</t>
   </si>
   <si>
     <t>Apt 4</t>
   </si>
   <si>
-    <t>Boston</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>Missing</t>
-  </si>
-  <si>
     <t>First Name is required, Last Name is required</t>
   </si>
   <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>King</t>
-  </si>
-  <si>
-    <t>alex.king@test.com</t>
-  </si>
-  <si>
     <t>abcdefg</t>
   </si>
   <si>
     <t>Road 5</t>
   </si>
   <si>
-    <t>Chicago</t>
-  </si>
-  <si>
-    <t>5/10/1990</t>
-  </si>
-  <si>
-    <t>11/22/1985</t>
-  </si>
-  <si>
     <t>1234567890</t>
   </si>
   <si>
-    <t>10001</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
     <t>firstName</t>
   </si>
   <si>
@@ -139,13 +85,85 @@
   </si>
   <si>
     <t>expectedMessage</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>kumar</t>
+  </si>
+  <si>
+    <t>demouser33@gmail.com</t>
+  </si>
+  <si>
+    <t>demouser1</t>
+  </si>
+  <si>
+    <t>Haresh</t>
+  </si>
+  <si>
+    <t>1999-10-03</t>
+  </si>
+  <si>
+    <t>Akshaya</t>
+  </si>
+  <si>
+    <t>Saravanaraja</t>
+  </si>
+  <si>
+    <t>1996-09-25</t>
+  </si>
+  <si>
+    <t>akshaya@gmail.com</t>
+  </si>
+  <si>
+    <t>user@gamil.com</t>
+  </si>
+  <si>
+    <t>useremail</t>
+  </si>
+  <si>
+    <t>No Name</t>
+  </si>
+  <si>
+    <t>pri</t>
+  </si>
+  <si>
+    <t>tn</t>
+  </si>
+  <si>
+    <t>638052</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>Invalid Phone</t>
+  </si>
+  <si>
+    <t>road5</t>
+  </si>
+  <si>
+    <t>Duplicate</t>
+  </si>
+  <si>
+    <t>hareshkumar@gmail.com</t>
+  </si>
+  <si>
+    <t>Dharun</t>
+  </si>
+  <si>
+    <t>1995-10-29</t>
+  </si>
+  <si>
+    <t>dharunkumar@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +178,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -179,18 +204,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -483,168 +514,266 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M4"/>
+      <selection activeCell="O5" sqref="A1:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="41.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="G4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N4" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="3" t="s">
+    <row r="5" spans="1:15">
+      <c r="A5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="J5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="F4" r:id="rId2"/>
+    <hyperlink ref="F3" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="F5" r:id="rId6"/>
+    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="F2" r:id="rId8"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
